--- a/fravær.xlsx
+++ b/fravær.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Antal elever til stede:</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>3a 02</t>
@@ -522,17 +527,14 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>3a 26</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Antal elever til stede:</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3/18</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -622,21 +624,18 @@
       <c r="S2" t="inlineStr">
         <is>
           <t>Thor Marner</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>2/18</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -646,7 +645,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -706,7 +705,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -722,11 +721,6 @@
       <c r="S3" t="inlineStr">
         <is>
           <t>Fraværende</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>2/18</t>
         </is>
       </c>
     </row>

--- a/fravær.xlsx
+++ b/fravær.xlsx
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/18</t>
+          <t>0/18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">

--- a/fravær.xlsx
+++ b/fravær.xlsx
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0/18</t>
+          <t>18/18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -635,92 +635,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
     </row>

--- a/fravær.xlsx
+++ b/fravær.xlsx
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/18</t>
+          <t>1/18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -635,92 +635,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Fraværende</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>Til stede</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Til stede</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
     </row>

--- a/fravær.xlsx
+++ b/fravær.xlsx
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/18</t>
+          <t>0/18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Til stede</t>
+          <t>Fraværende</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">

--- a/fravær.xlsx
+++ b/fravær.xlsx
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0/18</t>
+          <t>1/18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Fraværende</t>
+          <t>Til stede</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
